--- a/biology/Médecine/Bruno_Spire/Bruno_Spire.xlsx
+++ b/biology/Médecine/Bruno_Spire/Bruno_Spire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bruno Spire, né le 30 juin 1960, est un médecin français, directeur de recherches à l'INSERM[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruno Spire, né le 30 juin 1960, est un médecin français, directeur de recherches à l'INSERM.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il commence sa carrière de chercheur à l'Institut Pasteur aux côtés de Jean-Claude Chermann et de Françoise Barré-Sinoussi (Prix Nobel de Médecine 2008)[2] avant de s'installer à Marseille.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence sa carrière de chercheur à l'Institut Pasteur aux côtés de Jean-Claude Chermann et de Françoise Barré-Sinoussi (Prix Nobel de Médecine 2008) avant de s'installer à Marseille.
 Il est l'un des inventeurs de la molécule HPA-23.
-Il préside l'association AIDES de 2007 à juin 2015, date à laquelle Aurélien Beaucamp lui succède[3]. 
-Il se marie en 2013 avec Michel Bourrelly, responsable de l'offre de soins pour l'Afrique de l'association[4].
+Il préside l'association AIDES de 2007 à juin 2015, date à laquelle Aurélien Beaucamp lui succède. 
+Il se marie en 2013 avec Michel Bourrelly, responsable de l'offre de soins pour l'Afrique de l'association.
 </t>
         </is>
       </c>
